--- a/content/ensino/segundo-semestre-de-2022/mes-8-dia-21-ava-matc65.xlsx
+++ b/content/ensino/segundo-semestre-de-2022/mes-8-dia-21-ava-matc65.xlsx
@@ -470,7 +470,7 @@
         <v>3</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -502,7 +502,7 @@
         <v>3</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -534,7 +534,7 @@
         <v>3</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -598,7 +598,7 @@
         <v>2</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -630,7 +630,7 @@
         <v>4</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -694,7 +694,7 @@
         <v>3</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -726,7 +726,7 @@
         <v>3</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -790,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -822,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>5</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -918,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -950,7 +950,7 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -982,7 +982,7 @@
         <v>2</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1014,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1046,7 +1046,7 @@
         <v>3</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1078,7 +1078,7 @@
         <v>5</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1110,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1174,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1206,7 +1206,7 @@
         <v>4</v>
       </c>
       <c r="J26">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1270,7 +1270,7 @@
         <v>3</v>
       </c>
       <c r="J28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1302,7 +1302,7 @@
         <v>2</v>
       </c>
       <c r="J29">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1334,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1398,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="J32">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="J34">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -1494,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="J35">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -1526,7 +1526,7 @@
         <v>4</v>
       </c>
       <c r="J36">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -1590,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="J38">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -1622,7 +1622,7 @@
         <v>3</v>
       </c>
       <c r="J39">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -1654,7 +1654,7 @@
         <v>2</v>
       </c>
       <c r="J40">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -1686,7 +1686,7 @@
         <v>2</v>
       </c>
       <c r="J41">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -1718,7 +1718,7 @@
         <v>4</v>
       </c>
       <c r="J42">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1750,7 +1750,7 @@
         <v>5</v>
       </c>
       <c r="J43">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1878,7 +1878,7 @@
         <v>4</v>
       </c>
       <c r="J47">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -1942,7 +1942,7 @@
         <v>4</v>
       </c>
       <c r="J49">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="J50">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/content/ensino/segundo-semestre-de-2022/mes-8-dia-21-ava-matc65.xlsx
+++ b/content/ensino/segundo-semestre-de-2022/mes-8-dia-21-ava-matc65.xlsx
@@ -446,7 +446,7 @@
         <v>220121411</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -461,16 +461,16 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -484,13 +484,13 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -499,10 +499,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -522,19 +522,19 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>220117274</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -563,10 +563,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -606,16 +606,16 @@
         <v>220215074</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -627,10 +627,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,25 +676,25 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -705,13 +705,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -720,13 +720,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -787,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -798,13 +798,13 @@
         <v>220120072</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -830,31 +830,31 @@
         <v>221118106</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -897,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -973,16 +973,16 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1022,13 +1022,13 @@
         <v>219217429</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1040,13 +1040,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1054,31 +1054,31 @@
         <v>219218131</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1086,13 +1086,13 @@
         <v>219118768</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1121,28 +1121,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1171,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1185,28 +1185,28 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1249,13 +1249,13 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1267,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1284,10 +1284,10 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1328,13 +1328,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1395,10 +1395,10 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1438,13 +1438,13 @@
         <v>220117289</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1459,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1502,31 +1502,31 @@
         <v>219217442</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1607,22 +1607,22 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1630,13 +1630,13 @@
         <v>219216015</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1662,7 +1662,7 @@
         <v>220117284</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1700,25 +1700,25 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1726,31 +1726,31 @@
         <v>220217146</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1860,25 +1860,25 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1921,28 +1921,28 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
